--- a/round/html/bk_day.xlsx
+++ b/round/html/bk_day.xlsx
@@ -652,6 +652,12 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -4712,6 +4718,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>

--- a/round/html/bk_day.xlsx
+++ b/round/html/bk_day.xlsx
@@ -780,6 +780,10 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -8210,6 +8214,10 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
@@ -12818,6 +12826,10 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -15120,6 +15132,10 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
